--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Prueba 31AGO" sheetId="2" r:id="rId1"/>
+    <sheet name="Pruebas" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>cedula no repetida</t>
+  </si>
+  <si>
+    <t>APROBADO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Salida con tarjeta</t>
   </si>
 </sst>
 </file>
@@ -298,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -328,19 +340,6 @@
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -406,16 +405,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A43" sqref="A43:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,13 +729,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -750,13 +751,17 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -790,19 +795,23 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
@@ -810,7 +819,9 @@
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
@@ -818,7 +829,9 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
@@ -826,7 +839,9 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
@@ -834,7 +849,9 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
@@ -842,24 +859,30 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
@@ -867,7 +890,9 @@
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
@@ -875,7 +900,9 @@
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
@@ -883,7 +910,9 @@
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
@@ -902,7 +931,9 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
@@ -915,7 +946,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="4"/>
@@ -923,10 +954,12 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
@@ -934,7 +967,9 @@
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
@@ -942,7 +977,9 @@
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
@@ -950,18 +987,22 @@
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -970,7 +1011,9 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
@@ -981,7 +1024,9 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
@@ -989,7 +1034,9 @@
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
@@ -997,7 +1044,9 @@
       <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
@@ -1005,7 +1054,9 @@
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
@@ -1013,15 +1064,19 @@
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
@@ -1032,7 +1087,9 @@
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
     </row>
@@ -1040,7 +1097,9 @@
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
@@ -1048,141 +1107,248 @@
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="C59" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="C61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="C66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>Salida con tarjeta</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Formato del mensaje</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +281,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,11 +397,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,13 +422,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,644 +743,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A50"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+      <c r="E2" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="C53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="C66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>7</v>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>Salida con tarjeta</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Formato del mensaje</t>
   </si>
   <si>
     <t>-</t>
@@ -425,37 +419,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -754,32 +748,32 @@
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="20" t="s">
-        <v>64</v>
+      <c r="D2" s="13"/>
+      <c r="E2" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -789,7 +783,7 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -800,7 +794,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -811,7 +805,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -847,15 +841,15 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -932,16 +926,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>59</v>
+      <c r="D18" s="13"/>
+      <c r="E18" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1072,16 +1066,16 @@
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
-        <v>59</v>
+      <c r="D31" s="13"/>
+      <c r="E31" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1089,9 @@
         <v>7</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1108,7 +1104,9 @@
         <v>7</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1118,7 +1116,9 @@
         <v>7</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1128,7 +1128,9 @@
         <v>7</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1138,7 +1140,9 @@
         <v>7</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1148,7 +1152,9 @@
         <v>7</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1158,7 +1164,9 @@
         <v>7</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1171,7 +1179,9 @@
         <v>7</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1181,7 +1191,9 @@
         <v>7</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1191,7 +1203,9 @@
         <v>7</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1201,7 +1215,9 @@
         <v>7</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1211,7 +1227,9 @@
         <v>7</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1221,7 +1239,9 @@
         <v>7</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1231,7 +1251,9 @@
         <v>7</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1241,7 +1263,9 @@
         <v>7</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1250,6 +1274,9 @@
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E47" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1258,6 +1285,9 @@
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E48" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -1266,6 +1296,9 @@
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E49" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -1274,18 +1307,21 @@
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E50" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
-        <v>64</v>
+      <c r="D51" s="19"/>
+      <c r="E51" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1295,7 +1331,7 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1306,7 +1342,7 @@
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1317,7 +1353,7 @@
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1328,7 +1364,7 @@
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1339,7 +1375,7 @@
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1350,7 +1386,7 @@
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1361,7 +1397,7 @@
       <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1372,7 +1408,7 @@
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1383,7 +1419,7 @@
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1394,7 +1430,7 @@
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1405,7 +1441,7 @@
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1416,7 +1452,7 @@
       <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1427,52 +1463,52 @@
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="E64" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>62</v>
+      <c r="E68" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>VALIDAR NO MOSTAR AL OFICIAL, ya está implementado el ingreso por menu</t>
+  </si>
+  <si>
+    <t>implementar en link de TRAMITADOR - CAMBIOS</t>
+  </si>
+  <si>
+    <t>Mejorar lógica de consulta a formularios</t>
+  </si>
+  <si>
+    <t>Mejorar lógica de consulta a formularios. Solo dice no hay formulario</t>
+  </si>
+  <si>
+    <t>Vencido por tiempo</t>
   </si>
 </sst>
 </file>
@@ -446,10 +461,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -752,7 +767,7 @@
     <col min="5" max="5" width="13.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,11 +778,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
@@ -776,75 +791,84 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
@@ -852,8 +876,11 @@
       <c r="E11" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -865,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -877,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -889,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -901,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -913,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -925,11 +952,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
@@ -938,7 +965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -946,11 +973,12 @@
         <v>7</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -958,11 +986,9 @@
         <v>7</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -970,11 +996,9 @@
         <v>7</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -982,19 +1006,20 @@
         <v>7</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1005,11 +1030,9 @@
         <v>7</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1017,15 +1040,18 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1061,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1071,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1081,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -1065,20 +1091,23 @@
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1088,12 +1117,14 @@
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1103,37 +1134,43 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1143,9 +1180,12 @@
       <c r="E36" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1156,8 +1196,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1168,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1178,111 +1218,134 @@
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
       <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -1291,77 +1354,92 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="10" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="21" t="s">
+      <c r="D53" s="19"/>
+      <c r="E53" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="54" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
       <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -1370,18 +1448,21 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>57</v>
+      <c r="A57" t="s">
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
@@ -1392,9 +1473,12 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -1403,20 +1487,26 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E59" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>56</v>
+      <c r="A60" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -1425,18 +1515,21 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E61" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>57</v>
+      <c r="A62" t="s">
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
@@ -1447,9 +1540,12 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="12" t="s">
@@ -1458,20 +1554,26 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E64" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>52</v>
+      <c r="A65" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="12" t="s">
@@ -1480,20 +1582,26 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>49</v>
+      <c r="A67" t="s">
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="12" t="s">
@@ -1502,18 +1610,49 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A11:B11"/>

--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -873,9 +873,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="E11" s="17"/>
       <c r="F11" t="s">
         <v>63</v>
       </c>
@@ -888,9 +886,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -900,9 +896,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -912,9 +906,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -924,9 +916,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -936,9 +926,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -948,9 +936,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
@@ -1100,9 +1086,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="E31" s="20"/>
       <c r="F31" t="s">
         <v>65</v>
       </c>
@@ -1151,9 +1135,7 @@
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1165,9 +1147,7 @@
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -1177,9 +1157,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" t="s">
         <v>63</v>
       </c>
@@ -1192,9 +1170,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -1204,9 +1180,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1221,9 +1195,7 @@
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1235,9 +1207,7 @@
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1263,9 +1233,7 @@
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1277,9 +1245,7 @@
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1336,7 +1302,9 @@
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1404,6 +1372,9 @@
       <c r="D52" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E52" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
@@ -1414,9 +1385,7 @@
         <v>60</v>
       </c>
       <c r="D53" s="19"/>
-      <c r="E53" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1428,9 +1397,6 @@
       <c r="D54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -1442,9 +1408,6 @@
       <c r="D55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -1456,9 +1419,6 @@
       <c r="D56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1467,9 +1427,6 @@
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -1481,9 +1438,6 @@
       <c r="D58" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
@@ -1495,9 +1449,6 @@
       <c r="D59" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -1509,9 +1460,6 @@
       <c r="D60" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
@@ -1523,9 +1471,6 @@
       <c r="D61" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1534,9 +1479,6 @@
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
@@ -1548,9 +1490,6 @@
       <c r="D63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -1562,11 +1501,8 @@
       <c r="D64" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>10</v>
       </c>
@@ -1576,11 +1512,8 @@
       <c r="D65" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>48</v>
       </c>
@@ -1590,11 +1523,8 @@
       <c r="D66" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -1604,11 +1534,8 @@
       <c r="D67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>12</v>
       </c>
@@ -1618,11 +1545,8 @@
       <c r="D68" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
@@ -1632,11 +1556,8 @@
       <c r="D69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>50</v>
       </c>
@@ -1644,9 +1565,6 @@
         <v>7</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/QA/Bitacora Pruebas.xlsx
+++ b/QA/Bitacora Pruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
   <si>
     <t>Nueva Identificacion</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Vencido por tiempo</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -456,9 +459,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -779,10 +779,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
@@ -865,10 +865,10 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
@@ -939,10 +939,10 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
@@ -1078,15 +1078,15 @@
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
       <c r="F31" t="s">
         <v>65</v>
       </c>
@@ -1135,7 +1135,9 @@
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1147,7 +1149,9 @@
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -1195,7 +1199,9 @@
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1207,7 +1213,9 @@
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1233,7 +1241,9 @@
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1245,7 +1255,9 @@
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1377,15 +1389,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1397,6 +1413,9 @@
       <c r="D54" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E54" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -1408,6 +1427,9 @@
       <c r="D55" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E55" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -1419,6 +1441,9 @@
       <c r="D56" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E56" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1438,6 +1463,9 @@
       <c r="D58" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E58" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
@@ -1449,6 +1477,9 @@
       <c r="D59" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E59" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -1460,6 +1491,9 @@
       <c r="D60" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E60" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
@@ -1471,6 +1505,9 @@
       <c r="D61" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E61" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1490,6 +1527,9 @@
       <c r="D63" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E63" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -1501,8 +1541,11 @@
       <c r="D64" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>10</v>
       </c>
@@ -1512,8 +1555,11 @@
       <c r="D65" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>48</v>
       </c>
@@ -1523,8 +1569,11 @@
       <c r="D66" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -1535,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>12</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="D68" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
@@ -1556,8 +1608,11 @@
       <c r="D69" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>50</v>
       </c>
@@ -1565,6 +1620,9 @@
         <v>7</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>7</v>
       </c>
     </row>
